--- a/src/main/resources/xlsx/pcs/vote_jw_zj.xlsx
+++ b/src/main/resources/xlsx/pcs/vote_jw_zj.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,146 +33,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>候选人得赞成票数如下（以得票多少为序）：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>另选他人得赞成票数如下（以得票多少为序）：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总监票人：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总计票人：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中共北京师范大学第十三届纪律检查委员会委员选举结果报告单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">2017年11月   日           </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>本次选举大会实到代表</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> jc  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>名，发出选票</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> sv </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>张，收回选票</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> bv </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>张，其中有效票</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> vc </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>张，无效票</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  ic </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>张。</t>
-    </r>
+    <t>总监票人：                总计票人：                汇总计票人：</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>另选人姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中共北京师范大学第十三届纪律检查委员会委员计票结果报告单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>候选人得赞成票数如下（以获得赞成票多少为序）：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>另选人得赞成票数如下（以获得赞成票多少为序）：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   本次选举应到代表268名，实到代表jc名；发出选票sv张，收回选票bv张，其中有效票vc张，无效票ic张。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,14 +95,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -228,6 +113,18 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="方正小标宋简体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -313,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -321,19 +218,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -345,17 +242,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -640,10 +540,10 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.875" style="1" customWidth="1"/>
@@ -654,9 +554,9 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="48.75" customHeight="1">
+    <row r="1" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -664,27 +564,27 @@
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
     </row>
-    <row r="2" spans="1:6" ht="39.75" customHeight="1">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:6" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="1:6" s="9" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-    </row>
-    <row r="4" spans="1:6" s="4" customFormat="1" ht="29.25" customHeight="1">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="1:6" s="9" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="1:6" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -704,7 +604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="29.25" customHeight="1">
+    <row r="5" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -716,7 +616,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="29.25" customHeight="1">
+    <row r="6" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -728,7 +628,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="29.25" customHeight="1">
+    <row r="7" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -740,7 +640,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="29.25" customHeight="1">
+    <row r="8" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -752,7 +652,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="29.25" customHeight="1">
+    <row r="9" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -764,7 +664,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="29.25" customHeight="1">
+    <row r="10" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -776,7 +676,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="29.25" customHeight="1">
+    <row r="11" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -788,7 +688,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="29.25" customHeight="1">
+    <row r="12" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -800,22 +700,22 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="35.25" customHeight="1">
-      <c r="A13" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-    </row>
-    <row r="14" spans="1:6" ht="29.25" customHeight="1">
+    <row r="13" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>2</v>
@@ -824,13 +724,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="29.25" customHeight="1">
+    <row r="15" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -842,7 +742,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="29.25" customHeight="1">
+    <row r="16" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>2</v>
       </c>
@@ -854,7 +754,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="29.25" customHeight="1">
+    <row r="17" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>3</v>
       </c>
@@ -866,7 +766,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="29.25" customHeight="1">
+    <row r="18" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>4</v>
       </c>
@@ -878,7 +778,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="29.25" customHeight="1">
+    <row r="19" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>5</v>
       </c>
@@ -890,21 +790,19 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A20" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-    </row>
-    <row r="21" spans="1:6" ht="21.75" customHeight="1">
+    <row r="20" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -913,14 +811,13 @@
       <c r="F21" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A20:F20"/>
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:F20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/src/main/resources/xlsx/pcs/vote_jw_zj.xlsx
+++ b/src/main/resources/xlsx/pcs/vote_jw_zj.xlsx
@@ -537,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F3"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -736,87 +736,37 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="6">
-        <v>6</v>
-      </c>
+      <c r="D15" s="6"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>2</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="6">
-        <v>7</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+    <row r="16" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="6">
-        <v>8</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>4</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="6">
-        <v>9</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>5</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="6">
-        <v>10</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-    </row>
-    <row r="21" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A17:F17"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A16:F16"/>
     <mergeCell ref="A2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/main/resources/xlsx/pcs/vote_jw_zj.xlsx
+++ b/src/main/resources/xlsx/pcs/vote_jw_zj.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +59,10 @@
   <si>
     <t xml:space="preserve">   本次选举应到代表268名，实到代表jc名；发出选票sv张，收回选票bv张，其中有效票vc张，无效票ic张。</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>—</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -540,7 +544,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -731,14 +735,24 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">

--- a/src/main/resources/xlsx/pcs/vote_jw_zj.xlsx
+++ b/src/main/resources/xlsx/pcs/vote_jw_zj.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628CD7AB-B496-4928-9873-D09598300C2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="570" yWindow="3675" windowWidth="22905" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中共北京师范大学第十三届纪律检查委员会委员计票结果报告单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>候选人得赞成票数如下（以获得赞成票多少为序）：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -62,14 +59,18 @@
   </si>
   <si>
     <t>—</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -540,14 +541,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="7.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.875" style="1" customWidth="1"/>
@@ -558,9 +559,9 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="48.75" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -568,9 +569,9 @@
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
     </row>
-    <row r="2" spans="1:6" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" customFormat="1" ht="36" customHeight="1">
       <c r="A2" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -578,9 +579,9 @@
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
     </row>
-    <row r="3" spans="1:6" s="9" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="9" customFormat="1" ht="35.25" customHeight="1">
       <c r="A3" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -588,7 +589,7 @@
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" spans="1:6" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" s="4" customFormat="1" ht="29.25" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -608,7 +609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="29.25" customHeight="1">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -620,7 +621,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="29.25" customHeight="1">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -632,7 +633,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="29.25" customHeight="1">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -644,7 +645,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="29.25" customHeight="1">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -656,7 +657,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="29.25" customHeight="1">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -668,7 +669,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="29.25" customHeight="1">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -680,7 +681,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="29.25" customHeight="1">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -692,7 +693,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="29.25" customHeight="1">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -704,9 +705,9 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="35.25" customHeight="1">
       <c r="A13" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -714,7 +715,7 @@
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="29.25" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
@@ -734,27 +735,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="29.25" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="27.75" customHeight="1">
       <c r="A16" s="13" t="s">
         <v>4</v>
       </c>
@@ -764,7 +765,7 @@
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
     </row>
-    <row r="17" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="21.75" customHeight="1">
       <c r="A17" s="10" t="s">
         <v>3</v>
       </c>

--- a/src/main/resources/xlsx/pcs/vote_jw_zj.xlsx
+++ b/src/main/resources/xlsx/pcs/vote_jw_zj.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628CD7AB-B496-4928-9873-D09598300C2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434287CA-90AF-42EF-9132-C20384BFCFE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="3675" windowWidth="22905" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">2017年11月   日           </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>总监票人：                总计票人：                汇总计票人：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -63,6 +59,10 @@
   </si>
   <si>
     <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  年  月  日           </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -544,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F3"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.75" customHeight="1"/>
@@ -561,7 +561,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="48.75" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -571,7 +571,7 @@
     </row>
     <row r="2" spans="1:6" customFormat="1" ht="36" customHeight="1">
       <c r="A2" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -581,7 +581,7 @@
     </row>
     <row r="3" spans="1:6" s="9" customFormat="1" ht="35.25" customHeight="1">
       <c r="A3" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -707,7 +707,7 @@
     </row>
     <row r="13" spans="1:6" ht="35.25" customHeight="1">
       <c r="A13" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -720,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>2</v>
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>2</v>
@@ -737,27 +737,27 @@
     </row>
     <row r="15" spans="1:6" ht="29.25" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="27.75" customHeight="1">
       <c r="A16" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -767,7 +767,7 @@
     </row>
     <row r="17" spans="1:6" ht="21.75" customHeight="1">
       <c r="A17" s="10" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
